--- a/loaded_influencer_data/meyglobal_/meyglobal__video.xlsx
+++ b/loaded_influencer_data/meyglobal_/meyglobal__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,586 +506,791 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7488243852793367814</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>583</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Once you try the Mediheal Collagen Ampoule Pads, there's no going back!💕
+#ugc #ugccreator #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>13.03602058319039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.83533447684391</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.200686106346484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.886792452830189</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7487882092450155831</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cloud skin effect with SPF? This is it!☁
+@isntree
+#isntree #instreegl #isntreeasia #isntreesunsreen</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4460303300624442</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7487491570455809335</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>919</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>🍑🍑
+#ugc #ugccreator #seoul #kombucha #oliveyoung #kbeauty #ugckorea #diettips #dietsupplements #koreandiet</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4.134929270946682</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.808487486398259</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3264417845484222</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.196953210010881</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7487130074701991173</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>319</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The perfect eyeshadow palette for a everyday look🧡🐻
+#ugc #ugccreator #kbeauty #koreanmakeup #seoul</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9.404388714733543</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.150470219435736</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.253918495297806</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7485826105090362642</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>384</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B6" t="n">
+        <v>402</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>This scrub is as sweet as candy💕
 👉🏻Is the WPW Pink Sweety Sugar Scrub!
 #ugc ##ugccreator #ugckorea</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>10.15625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.072916666666668</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5208333333333333</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H6" t="n">
+        <v>10.44776119402985</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.457711442786071</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.990049751243781</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7462686567164178</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/photo/7483805390925270279</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>520</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B7" t="n">
+        <v>530</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #skincareroutine</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5.849056603773585</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.09433962264151</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7483521153059835144</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>335</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #skincareroutine</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5.576923076923078</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.807692307692308</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/video/7483521153059835144</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>326</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Girls what do you think about this product??🤩
 #ugc #ugccreator #ugcspain #ugckorea #seoul #kbeauty</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>10.42944785276074</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.509202453987731</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9202453987730062</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.226993865030675</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H8" t="n">
+        <v>10.44776119402985</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.55223880597015</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8955223880597015</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.194029850746269</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/photo/7481545913547410706</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>434</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B9" t="n">
+        <v>441</v>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>#ugc #ugccreator #ugccommunity #koreanskincare #kbeauty #koreanproducts #seoulkorea #seoul #lifeisshort</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12.92517006802721</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.133786848072562</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/photo/7481201550887521544</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #kbeauty</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7.79816513761468</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.568807339449542</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6880733944954129</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/video/7480817072675540232</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>320</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #kbeauty</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.3125</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@meyglobal_/photo/7480451121568320776</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>#ugc #ugccreator #ugccommunity #koreanskincare #kbeauty #koreanproducts #seoulkorea #seoul #lifeisshort</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>12.90322580645161</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.21198156682028</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6912442396313364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9216589861751152</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/photo/7481201550887521544</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>433</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #kbeauty</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7.852193995381063</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.621247113163972</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2309468822170901</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.6928406466512702</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/video/7480817072675540232</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>320</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>#ugc #ugccreator #ugccommunity #teamwork #seoul #seoulkorea #koreanskincare #kbeauty</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10.625</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.3125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/photo/7480451121568320776</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1350</v>
-      </c>
-      <c r="C8" t="n">
-        <v>55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>7</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>#kbeauty #koreanskincareroutine #seoulkorea #seoul #teamwork #ugccreator #ugc #skincaretrends</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>4.37037037037037</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>4.074074074074074</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>0.5185185185185185</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7480061387511745799</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>908</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>I am in shock with this product!😯
 @mixsoon_official
 #ugc #ugccreator #teamwork #seoul #seoulkorea</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>5.726872246696035</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>4.515418502202643</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.211453744493392</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>0.6607929515418502</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7479710323138727186</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>320</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>14</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Let's support eachother💕
 #ugc #ugccreator #ugccommunity #koreanskincare #kbeauty #teamwork</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>5.3125</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>4.375</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>0.625</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7479330967883320594</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>368</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>49</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>It's a real problem🙈😂
 #ugc #ugccreator #kbeauty #koreanskincare #skincareroutine #seoulkorea</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>15.48913043478261</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>13.31521739130435</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.173913043478261</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>0.8152173913043478</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7478955981804752146</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>306</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>25</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>A skincare product I will ALWAYS repurchase💚
 @𝗧𝗼𝗿𝗿𝗶𝗱𝗲𝗻 토리든
 #skincareroutine #kbeauty</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>13.0718954248366</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>8.169934640522875</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.901960784313726</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>1.633986928104575</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7478593153134529799</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>417</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>38</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Getting rid of all my pores with this Green Tomato Cleanser💚
 @FULLY Skincare
@@ -1093,1923 +1298,1770 @@
 #deepglow</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>10.31175059952038</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>9.112709832134293</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.199040767386091</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>1.199040767386091</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7478233612773559570</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>344</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>21</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>It's a real obsession💕
 #ugc #ugccreator #skincarefavorites #kbeauty #koreanskincare #koreanproducts #seoul</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>6.976744186046512</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>6.104651162790697</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.8720930232558139</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7477849266782850312</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>343</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>27</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Get instant hydration with the most interesting mask you'll ever try!
 @FULLY Skincare
 @FULLY Official</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>10.20408163265306</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>7.871720116618077</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.332361516034986</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>0.8746355685131195</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7477485314106346760</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>487</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>48</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>How your skincare/makeup collection looks like?🙈✨
 #ugccreator #ugc #teamwork #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>11.70431211498973</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>9.856262833675565</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.848049281314168</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.6160164271047228</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7477126994971413778</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>395</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Korea's Cinderella Injection in an ampoule✨
 A must have if you're struggling with dark spots or acne scars! ~~</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>6.582278481012659</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>5.063291139240507</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.518987341772152</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>1.518987341772152</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7476764154922142994</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>652</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>40</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>6</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>I think I found my favorite cream 🩵
 @numbuzin Official
 #ugccreator #ugc #koreanskincare #skincare</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>7.361963190184049</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>6.134969325153374</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.226993865030675</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.9202453987730062</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7476364727661120776</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>566</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>40</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>9</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>3-step skincare routine to get rid of dark spots 😌
 @mimumimu.official
 #mimumimu #niacindy</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>8.657243816254418</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>7.06713780918728</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.590106007067138</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.5300353356890459</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7476006172126989576</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>337</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>44</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>My favorite Kbeauty products of 2025💕. This is my first video in spanish🙈
 os gusta??
 #ugc #ugccreator</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>15.72700296735905</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>13.05637982195846</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.670623145400593</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>1.483679525222552</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7475632092148452615</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>1082</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>48</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>My favorite Kbeauty products of 2025💕. This is my first video in spanish🙈
 os gusta??
 #ugc #ugccreator</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>5.083179297597042</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>4.436229205175601</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.6469500924214419</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.4621072088724584</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7475250927109180690</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>441</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>69</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>15</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>The only lip oil you need🐝✨ @Gisou
 #ugc #gisou #lipoil #gisoulipoil #fypage #fy #ugccreator</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>19.04761904761905</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>15.64625850340136</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.401360544217687</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>1.360544217687075</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7474873383247760658</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>454</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>38</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>6</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>⭐Save this video if you have sensitive skin⭐
 @SKIN1004 US
 #ugc #ugccreator #ugccommunity #teamwork #seoul</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>9.471365638766519</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>8.370044052863436</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.101321585903084</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>1.3215859030837</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7474528155189906695</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>773</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>47</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>15</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Finally trying the Round Lab Birch Juice Moisturizing Sunscreen!💧🩵
 @ROUND LAB
 #ugc #ugccreator</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>8.020698576972833</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>6.080206985769729</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1.940491591203105</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>0.7761966364812419</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/photo/7473773879660465416</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>670</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>64</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>5</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Finally trying the Round Lab Birch Juice Moisturizing Sunscreen!💧🩵
 @ROUND LAB
 #ugc #ugccreator</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>10.29850746268657</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>9.55223880597015</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.7462686567164178</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.7462686567164178</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7473385214819962120</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>508</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>60</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>5</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>6</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Loving this product sooo much💛 @SKIN1004 US @skin1004_influencers
 Yesstyle code: MEYGLOBAL12</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>12.79527559055118</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>11.81102362204724</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.984251968503937</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>1.181102362204724</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7473038717590998290</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>532</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>65</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>9</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>My Top 10 Kbeauty Products💕
 Yesstyle code: MEYGLOBAL12
 #ugc #ugccreator #teamwork #ugccommunity</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>12.96992481203008</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>12.21804511278195</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7518796992481203</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>1.691729323308271</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7472669066713369864</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>439</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>58</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>This is your sign✨
 #ugc #ugccreator #ugccommunity #makeuptip #makeupbrushes ##asmrsounds #asmr</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>13.66742596810934</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>13.21184510250569</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.4555808656036446</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.683371298405467</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7472270379155770632</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>592</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>46</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>The packaging is so aesthetic🤩✨@muzigaemansion_
 Olive Young code: MEYGLOBAL12
 #ugc #ugccreator</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>8.614864864864865</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>7.77027027027027</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.8445945945945946</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7471561552999533831</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>521</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>76</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>This is the best part of the UGC journey!💕✨
 #ugc ##ugccreator #pr #seoulkorea #fy #kbeauty</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>16.50671785028791</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>14.5873320537428</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.919385796545105</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>0.7677543186180422</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7471179584164121863</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>349</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>31</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>I'm very picky when it comes to my sunscreens😯 Which sunscreen have you tried?
 #ugc #ugccreator #kbeauty</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>9.742120343839542</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>8.882521489971348</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.8595988538681949</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.2865329512893983</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7470831780564700434</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>376</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>44</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Emm..no thank you!😅
 #ugc #ugccreator #kbeauty #koreanskincare #teamwork #seoulkorea #prproduct</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>13.03191489361702</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>11.70212765957447</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.329787234042553</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>1.063829787234043</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7469771218879565074</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>652</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>45</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>3</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>My favorite Eye Cream💚@AXIS-Y
 #kbeauty #ugc #ugccreator #teamwork #koreanskincare #axisy #eyeserum</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>7.361963190184049</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>6.901840490797547</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.4601226993865031</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>0.3067484662576687</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7469488497573825810</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>461</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>57</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>9</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Dreams come true✨
 #ugc #ugccreator #teamwork #ugccommunity #koreanskincare #skincareroutine</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>14.31670281995662</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>12.3644251626898</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.952277657266811</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>1.084598698481562</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7468965855246748946</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>415</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>50</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>That's all I need😮‍💨💸
 #ugc #ugccreator #seoul #koreanskincare #teamwork #kbeauty #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>13.01204819277108</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>12.04819277108434</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.9638554216867471</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7468610322106977554</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>414</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>32</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Finally found my daily lip gloss! 💗
 @fwee official
 #kbeauty #makeup #fwee #fweegloss #fwee3Dvoluminggloss</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>7.971014492753622</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>7.729468599033816</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.2415458937198068</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.2415458937198068</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7467488600049863954</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>536</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>57</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Money Talks💸💸
 #ugc #ugccreator #seoul #teamwork #kbeauty #girlssupportgirls #moneytalks #koreanskincare</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>11.19402985074627</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>10.63432835820896</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.5597014925373134</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7467150144564169991</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>369</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>29</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Natural Look with Dasique Palette💕🙈 @Dasique Global
 #ugc #ugccreator #dasique #seoul #teamwork #kbeauty</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>9.214092140921409</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>7.859078590785908</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.355013550135501</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.5420054200542005</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7466777907570953490</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>1126</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>50</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Natural Look with Dasique Palette💕🙈 @Dasique Global
 #ugc #ugccreator #dasique #seoul #teamwork #kbeauty</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>4.706927175843695</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>4.440497335701599</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.2664298401420959</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.3552397868561279</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/photo/7466380146585439495</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>1091</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>29</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>3</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>This is your sign to start following your dreams 🌟
 #ugc #ugccreator #ugccontentcreator #teamwork</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>2.933088909257562</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>2.658111824014665</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.2749770852428964</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.09165902841429881</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7466005632424889608</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>298</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>32</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>@L’Oréal Paris x @Maybelline NY = best mascara combination💗 #mascara #makeup #makeuptutorial #beauty</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>11.74496644295302</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>10.73825503355705</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.006711409395973</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>0.6711409395973155</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7464931695960149255</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>417</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>19</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>The best product for lightening scars and dark spots! 👍🏻💫@axisy
 #kbeauty #koreanskincare #ugccreator #ugc</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>4.796163069544365</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>4.556354916067146</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.2398081534772182</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7464582952479919368</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>3204</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>31</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>3</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Goodbye to dry under-eyes with this gold eye patches👋🏻💫@snpkorea.official
 #kbeauty #koreanskincare #seoul</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>1.061173533083645</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>0.9675405742821472</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.09363295880149813</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.06242197253433208</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7464183039556373768</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>1715</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>27</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Goodbye to dry under-eyes with this gold eye patches👋🏻💫@snpkorea.official
 #kbeauty #koreanskincare #seoul</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>1.865889212827988</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>1.574344023323615</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.2915451895043732</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.1749271137026239</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7463820497558490375</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>352</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>31</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>No. 1 in Korea for a reason!
 #kbeauty #teamwork #ugc #ugccreator #seoul #anuatoner #oliveyoung</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>9.375</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>8.806818181818182</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.5681818181818182</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.8522727272727272</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/photo/7463420302551223560</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>531</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>21</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>#ugc #ugccreator #girlssupportgirls #skincare #kbeauty #microinfluencers #koreanskincare #seoul #teamwork</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>3.954802259887006</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>3.954802259887006</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.5649717514124294</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@meyglobal_/video/7463022268948532498</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>974</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>34</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>These are one of the most famous toner pads in Korea🇰🇷✨
 #kbeauty #skincareroutine #teamwork #seoul</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>3.593429158110883</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>3.490759753593429</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1026694045174538</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>0.4106776180698152</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/video/7462656832205638930</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>997</v>
-      </c>
-      <c r="C48" t="n">
-        <v>23</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Best Combo ever💗
-#seoul #teamwork #girlssupportgirls #skincareroutine #koreanskincare #kbeauty</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2.507522567703109</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.306920762286861</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2006018054162488</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.7021063189568706</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/video/7462281795678031122</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>280</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Micro needling at home ✨
-@VTcosmetics_official
-#kbeauty #koreanskincare #viralproduct #seoul #southkorea</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.357142857142857</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.357142857142857</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@meyglobal_/video/7461910991555611911</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>228</v>
-      </c>
-      <c r="C50" t="n">
-        <v>19</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Say goodbye to harsh exfoliators and hello to smoother, hydated skin with the Mixsoon Bean Essence✨</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
         </is>
       </c>
     </row>
